--- a/Code/Results/Cases/Case_1_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_89/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.270680122270134</v>
+        <v>7.800818559179596</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.526361400386718</v>
+        <v>4.786548219736237</v>
       </c>
       <c r="E2">
-        <v>12.52947460487429</v>
+        <v>11.90286008835687</v>
       </c>
       <c r="F2">
-        <v>24.206279966633</v>
+        <v>26.50698528322041</v>
       </c>
       <c r="G2">
-        <v>34.08603984584631</v>
+        <v>33.11511128756324</v>
       </c>
       <c r="H2">
-        <v>10.54724253125632</v>
+        <v>14.949068772853</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.76632397580888</v>
+        <v>10.38421041228618</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.02692043435373</v>
+        <v>14.20588426489885</v>
       </c>
       <c r="N2">
-        <v>12.36013351116236</v>
+        <v>18.93266549881341</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.908961160387637</v>
+        <v>7.729303826301262</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.529608165803454</v>
+        <v>4.783410153023312</v>
       </c>
       <c r="E3">
-        <v>11.83433839485366</v>
+        <v>11.76327144579289</v>
       </c>
       <c r="F3">
-        <v>23.19967048942471</v>
+        <v>26.37109898924724</v>
       </c>
       <c r="G3">
-        <v>32.4563539619291</v>
+        <v>32.81526778124211</v>
       </c>
       <c r="H3">
-        <v>10.37356503322872</v>
+        <v>14.96476793590236</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.72177161268365</v>
+        <v>9.999814629666608</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.89739569972437</v>
+        <v>13.96766326380751</v>
       </c>
       <c r="N3">
-        <v>12.6024209587274</v>
+        <v>19.00062134317207</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.680552244905824</v>
+        <v>7.686933560431236</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.531595347695005</v>
+        <v>4.781485597484888</v>
       </c>
       <c r="E4">
-        <v>11.3999755251924</v>
+        <v>11.68078601558786</v>
       </c>
       <c r="F4">
-        <v>22.5852622514909</v>
+        <v>26.29575170107471</v>
       </c>
       <c r="G4">
-        <v>31.45500178837018</v>
+        <v>32.64225792513611</v>
       </c>
       <c r="H4">
-        <v>10.27514569478878</v>
+        <v>14.97772152532224</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.04736919179405</v>
+        <v>9.758431930294078</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.16820791697406</v>
+        <v>13.82327223646492</v>
       </c>
       <c r="N4">
-        <v>12.75406072758467</v>
+        <v>19.04424496607256</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.586014166010072</v>
+        <v>7.670073646268931</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.532406687363319</v>
+        <v>4.78070216771493</v>
       </c>
       <c r="E5">
-        <v>11.22125039904652</v>
+        <v>11.64802111565714</v>
       </c>
       <c r="F5">
-        <v>22.33611386023387</v>
+        <v>26.26710433890891</v>
       </c>
       <c r="G5">
-        <v>31.0472736051055</v>
+        <v>32.57461916748456</v>
       </c>
       <c r="H5">
-        <v>10.23706837799361</v>
+        <v>14.98383187911979</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.76422745450654</v>
+        <v>9.658881761742458</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.86202076335598</v>
+        <v>13.76498425307348</v>
       </c>
       <c r="N5">
-        <v>12.81661143332391</v>
+        <v>19.06250075891744</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.570232174267722</v>
+        <v>7.667299152310518</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.532541595964764</v>
+        <v>4.780572138979287</v>
       </c>
       <c r="E6">
-        <v>11.19147548454579</v>
+        <v>11.64263285735404</v>
       </c>
       <c r="F6">
-        <v>22.29482678026847</v>
+        <v>26.26247234141389</v>
       </c>
       <c r="G6">
-        <v>30.97960704190811</v>
+        <v>32.56356282420243</v>
       </c>
       <c r="H6">
-        <v>10.23086705052797</v>
+        <v>14.98489667250869</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.71670978093012</v>
+        <v>9.642285065298728</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.81063096118162</v>
+        <v>13.75534128879385</v>
       </c>
       <c r="N6">
-        <v>12.8270445559223</v>
+        <v>19.06556108052142</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.679282997175452</v>
+        <v>7.686704511980355</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.53160627925166</v>
+        <v>4.781475028109938</v>
       </c>
       <c r="E7">
-        <v>11.39757186696555</v>
+        <v>11.68034065184627</v>
       </c>
       <c r="F7">
-        <v>22.5818967449355</v>
+        <v>26.29535699441794</v>
       </c>
       <c r="G7">
-        <v>31.44950095232784</v>
+        <v>32.64133403551534</v>
       </c>
       <c r="H7">
-        <v>10.27462400683677</v>
+        <v>14.97780056688594</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.04358431667849</v>
+        <v>9.757093931213237</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.16411524645976</v>
+        <v>13.82248380131622</v>
       </c>
       <c r="N7">
-        <v>12.7549012030286</v>
+        <v>19.04448922951788</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.147339701783838</v>
+        <v>7.775852293889021</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.527484075656374</v>
+        <v>4.78546591821394</v>
       </c>
       <c r="E8">
-        <v>12.29145199609574</v>
+        <v>11.85408464947415</v>
       </c>
       <c r="F8">
-        <v>23.85861729008443</v>
+        <v>26.45846836662861</v>
       </c>
       <c r="G8">
-        <v>33.52455608234395</v>
+        <v>33.00946898705971</v>
       </c>
       <c r="H8">
-        <v>10.48563138025201</v>
+        <v>14.95379301786385</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.41300942090431</v>
+        <v>10.25287694013361</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.64481339405318</v>
+        <v>14.12340428319697</v>
       </c>
       <c r="N8">
-        <v>12.44309838016589</v>
+        <v>18.95570351347995</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.010525566044592</v>
+        <v>7.962019487494559</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.519212952832565</v>
+        <v>4.793297867190082</v>
       </c>
       <c r="E9">
-        <v>13.97881357626584</v>
+        <v>12.21859132273062</v>
       </c>
       <c r="F9">
-        <v>26.37966833009311</v>
+        <v>26.84129797599048</v>
       </c>
       <c r="G9">
-        <v>37.5698052116043</v>
+        <v>33.81583637981215</v>
       </c>
       <c r="H9">
-        <v>10.96613187450666</v>
+        <v>14.93307737252294</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.837629530817</v>
+        <v>11.17774419243782</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.26945598558131</v>
+        <v>14.7248731993321</v>
       </c>
       <c r="N9">
-        <v>11.85285006396103</v>
+        <v>18.79659185599653</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.664614610449597</v>
+        <v>8.104509347719024</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.512840024389421</v>
+        <v>4.799040328053452</v>
       </c>
       <c r="E10">
-        <v>15.24063527143419</v>
+        <v>12.4984207407147</v>
       </c>
       <c r="F10">
-        <v>28.2302688579674</v>
+        <v>27.15911719370006</v>
       </c>
       <c r="G10">
-        <v>40.50928140841064</v>
+        <v>34.45456580621064</v>
       </c>
       <c r="H10">
-        <v>11.36175298591152</v>
+        <v>14.93400269625462</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.46311258605926</v>
+        <v>11.99780960302421</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.03403075993614</v>
+        <v>15.16902207850609</v>
       </c>
       <c r="N10">
-        <v>11.4297262908268</v>
+        <v>18.68873992590369</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.978368235737886</v>
+        <v>8.170308283362292</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.50983959184699</v>
+        <v>4.801647060689461</v>
       </c>
       <c r="E11">
-        <v>15.85420377352514</v>
+        <v>12.62778757568017</v>
       </c>
       <c r="F11">
-        <v>29.07021834152974</v>
+        <v>27.31118568160639</v>
       </c>
       <c r="G11">
-        <v>41.83749123195199</v>
+        <v>34.75399252426134</v>
       </c>
       <c r="H11">
-        <v>11.55138769650575</v>
+        <v>14.9379383972866</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.16971729764301</v>
+        <v>12.35115392045079</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.80285799129644</v>
+        <v>15.37060599040084</v>
       </c>
       <c r="N11">
-        <v>11.2389569198242</v>
+        <v>18.64161952653449</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.094783227013131</v>
+        <v>8.19534315571571</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.50868598985295</v>
+        <v>4.802633100122994</v>
       </c>
       <c r="E12">
-        <v>16.08352444509072</v>
+        <v>12.67702704140589</v>
       </c>
       <c r="F12">
-        <v>29.38794776789837</v>
+        <v>27.36980515094304</v>
       </c>
       <c r="G12">
-        <v>42.33911286946132</v>
+        <v>34.86854733631034</v>
       </c>
       <c r="H12">
-        <v>11.62462257131845</v>
+        <v>14.9399342592193</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.43266619635962</v>
+        <v>12.48210588156086</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.089271716932</v>
+        <v>15.44679750736794</v>
       </c>
       <c r="N12">
-        <v>11.16691381657297</v>
+        <v>18.62405401736496</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.06981721814207</v>
+        <v>8.189946548764105</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.508935255744824</v>
+        <v>4.802420790994366</v>
       </c>
       <c r="E13">
-        <v>16.03426811877984</v>
+        <v>12.6664120181405</v>
       </c>
       <c r="F13">
-        <v>29.31953474126659</v>
+        <v>27.35713509747467</v>
       </c>
       <c r="G13">
-        <v>42.23113926426192</v>
+        <v>34.84382565783869</v>
       </c>
       <c r="H13">
-        <v>11.60878618336887</v>
+        <v>14.93948193512005</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.37623957002005</v>
+        <v>12.45403010162874</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.02779498669876</v>
+        <v>15.43039590395715</v>
       </c>
       <c r="N13">
-        <v>11.1824216362484</v>
+        <v>18.62782472198659</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.987993602651466</v>
+        <v>8.172365677009578</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.509745048646964</v>
+        <v>4.801728205835292</v>
       </c>
       <c r="E14">
-        <v>15.87312983306942</v>
+        <v>12.63183377182381</v>
       </c>
       <c r="F14">
-        <v>29.09636517121739</v>
+        <v>27.31598786201312</v>
       </c>
       <c r="G14">
-        <v>41.87878683417925</v>
+        <v>34.76339421755303</v>
       </c>
       <c r="H14">
-        <v>11.55738401387949</v>
+        <v>14.938092467975</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.19144239941276</v>
+        <v>12.36198465692761</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.82651520015212</v>
+        <v>15.37687763013436</v>
       </c>
       <c r="N14">
-        <v>11.23302623214962</v>
+        <v>18.64016883807997</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.937563177916402</v>
+        <v>8.161611613543281</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.510238723016258</v>
+        <v>4.801303829464911</v>
       </c>
       <c r="E15">
-        <v>15.77403876805256</v>
+        <v>12.61068490734729</v>
       </c>
       <c r="F15">
-        <v>28.95962181847633</v>
+        <v>27.29091739804871</v>
       </c>
       <c r="G15">
-        <v>41.66278592915597</v>
+        <v>34.71427660645703</v>
       </c>
       <c r="H15">
-        <v>11.5260852924392</v>
+        <v>14.93730720602348</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.07764928473614</v>
+        <v>12.30523232462742</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.70261492589669</v>
+        <v>15.3440751489168</v>
       </c>
       <c r="N15">
-        <v>11.26404716899201</v>
+        <v>18.64776612652492</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.643772825541966</v>
+        <v>8.100227010237464</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.513033824371714</v>
+        <v>4.798869836674643</v>
       </c>
       <c r="E16">
-        <v>15.2001055330753</v>
+        <v>12.49000398822413</v>
       </c>
       <c r="F16">
-        <v>28.17533093565846</v>
+        <v>27.14932629555107</v>
       </c>
       <c r="G16">
-        <v>40.42229270052295</v>
+        <v>34.43516691296381</v>
       </c>
       <c r="H16">
-        <v>11.34955724790234</v>
+        <v>14.93381622998738</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.41628134402236</v>
+        <v>11.97431949837559</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.98311653923242</v>
+        <v>15.1558321071811</v>
       </c>
       <c r="N16">
-        <v>11.44222384397184</v>
+        <v>18.69185832183057</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.459236700986285</v>
+        <v>8.062804344169468</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.514720502439546</v>
+        <v>4.797375043321812</v>
       </c>
       <c r="E17">
-        <v>14.842467329358</v>
+        <v>12.41646729709049</v>
       </c>
       <c r="F17">
-        <v>27.69364230940005</v>
+        <v>27.06435367890258</v>
       </c>
       <c r="G17">
-        <v>39.65892653786435</v>
+        <v>34.26613780704144</v>
       </c>
       <c r="H17">
-        <v>11.24376170271969</v>
+        <v>14.93257501596868</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.00220645530577</v>
+        <v>11.76625312020616</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.53314914628331</v>
+        <v>15.04017672594865</v>
       </c>
       <c r="N17">
-        <v>11.55193399624096</v>
+        <v>18.71940392161942</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.351503498501527</v>
+        <v>8.041373376281207</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.515681254842901</v>
+        <v>4.79651477233095</v>
       </c>
       <c r="E18">
-        <v>14.65190057624547</v>
+        <v>12.37436867496544</v>
       </c>
       <c r="F18">
-        <v>27.41640987407289</v>
+        <v>27.0161874758305</v>
       </c>
       <c r="G18">
-        <v>39.21901143762381</v>
+        <v>34.16975773555516</v>
       </c>
       <c r="H18">
-        <v>11.18381834213941</v>
+        <v>14.93219194701038</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.7609443296351</v>
+        <v>11.64472456991259</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.27114043740566</v>
+        <v>14.97361581678463</v>
       </c>
       <c r="N18">
-        <v>11.61520061486071</v>
+        <v>18.73543028719779</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.317552672209361</v>
+        <v>8.034133977172008</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.516005027059254</v>
+        <v>4.796223421075769</v>
       </c>
       <c r="E19">
-        <v>14.5913339627817</v>
+        <v>12.36015019295878</v>
       </c>
       <c r="F19">
-        <v>27.3225161367957</v>
+        <v>27.0000020564781</v>
       </c>
       <c r="G19">
-        <v>39.0699213177453</v>
+        <v>34.13727274905484</v>
       </c>
       <c r="H19">
-        <v>11.16367741698493</v>
+        <v>14.93211906104454</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.67872251676391</v>
+        <v>11.60325925314873</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.18187502506292</v>
+        <v>14.95107515230908</v>
       </c>
       <c r="N19">
-        <v>11.63665125566111</v>
+        <v>18.74088798606127</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.479045506574314</v>
+        <v>8.066778531698073</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.514541944547677</v>
+        <v>4.797534220933935</v>
       </c>
       <c r="E20">
-        <v>14.88075331388699</v>
+        <v>12.42427527747499</v>
       </c>
       <c r="F20">
-        <v>27.74493796007354</v>
+        <v>27.07332620677631</v>
       </c>
       <c r="G20">
-        <v>39.74027650163096</v>
+        <v>34.28404496785518</v>
       </c>
       <c r="H20">
-        <v>11.25492966593276</v>
+        <v>14.93267290239062</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.0466053413539</v>
+        <v>11.78859419840293</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.58137903966274</v>
+        <v>15.0524930458629</v>
       </c>
       <c r="N20">
-        <v>11.54023850999058</v>
+        <v>18.7164527290047</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.012091952291494</v>
+        <v>8.177526576167061</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.509507686783776</v>
+        <v>4.801931666206686</v>
       </c>
       <c r="E21">
-        <v>15.92054087750097</v>
+        <v>12.64198379913611</v>
       </c>
       <c r="F21">
-        <v>29.16192502191165</v>
+        <v>27.32804608025609</v>
       </c>
       <c r="G21">
-        <v>41.98231769365174</v>
+        <v>34.78698802891545</v>
       </c>
       <c r="H21">
-        <v>11.57244312313984</v>
+        <v>14.93848687027864</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.24584655628191</v>
+        <v>12.38909815112842</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.88576291233218</v>
+        <v>15.39260175337602</v>
       </c>
       <c r="N21">
-        <v>11.21815749270211</v>
+        <v>18.63653553834282</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.346515511293381</v>
+        <v>8.250585604056578</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.506114899669958</v>
+        <v>4.804799267551667</v>
       </c>
       <c r="E22">
-        <v>16.58255531231037</v>
+        <v>12.78571075198878</v>
       </c>
       <c r="F22">
-        <v>30.08602584806635</v>
+        <v>27.50052834010027</v>
       </c>
       <c r="G22">
-        <v>43.43983499150569</v>
+        <v>35.12245021459612</v>
       </c>
       <c r="H22">
-        <v>11.7882783551543</v>
+        <v>14.94523283890398</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.00270475690797</v>
+        <v>12.76493453409492</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.7107957892902</v>
+        <v>15.61400979450389</v>
       </c>
       <c r="N22">
-        <v>11.00878278836429</v>
+        <v>18.58592462706065</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.169292572763061</v>
+        <v>8.211537973071444</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.507935966380345</v>
+        <v>4.803269449166228</v>
       </c>
       <c r="E23">
-        <v>16.23077803430298</v>
+        <v>12.70888442447538</v>
       </c>
       <c r="F23">
-        <v>29.59300577889848</v>
+        <v>27.40793626775184</v>
       </c>
       <c r="G23">
-        <v>42.66263702220495</v>
+        <v>34.94282484109074</v>
       </c>
       <c r="H23">
-        <v>11.67230886692033</v>
+        <v>14.94136287887052</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.60118298358489</v>
+        <v>12.56586963398338</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.2729193747751</v>
+        <v>15.49594480137544</v>
       </c>
       <c r="N23">
-        <v>11.12044422244349</v>
+        <v>18.61278885377922</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.470095059216428</v>
+        <v>8.064981538707842</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.514622698205068</v>
+        <v>4.797462259468525</v>
       </c>
       <c r="E24">
-        <v>14.86345101505157</v>
+        <v>12.42074472968513</v>
       </c>
       <c r="F24">
-        <v>27.72174813503518</v>
+        <v>27.06926758772712</v>
       </c>
       <c r="G24">
-        <v>39.70350143512641</v>
+        <v>34.27594664960938</v>
       </c>
       <c r="H24">
-        <v>11.24987789158955</v>
+        <v>14.93262761831928</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.02654259468765</v>
+        <v>11.77849973996735</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.5595846459262</v>
+        <v>15.04692504687428</v>
       </c>
       <c r="N24">
-        <v>11.54552543515656</v>
+        <v>18.71778637108908</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.783429885681797</v>
+        <v>7.910564188879787</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.521489663350054</v>
+        <v>4.791180082755543</v>
       </c>
       <c r="E25">
-        <v>13.52997597235892</v>
+        <v>12.11768688274622</v>
       </c>
       <c r="F25">
-        <v>25.69723275434651</v>
+        <v>26.73116814475443</v>
       </c>
       <c r="G25">
-        <v>36.4802104745187</v>
+        <v>33.5891680836242</v>
       </c>
       <c r="H25">
-        <v>10.82879659805896</v>
+        <v>14.93585025092749</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.20936369732021</v>
+        <v>10.93246211313531</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.58868339061939</v>
+        <v>14.56143170211663</v>
       </c>
       <c r="N25">
-        <v>12.01049660216847</v>
+        <v>18.83804012943622</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_89/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.800818559179596</v>
+        <v>7.270680122270134</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.786548219736237</v>
+        <v>3.526361400386594</v>
       </c>
       <c r="E2">
-        <v>11.90286008835687</v>
+        <v>12.52947460487427</v>
       </c>
       <c r="F2">
-        <v>26.50698528322041</v>
+        <v>24.20627996663306</v>
       </c>
       <c r="G2">
-        <v>33.11511128756324</v>
+        <v>34.08603984584631</v>
       </c>
       <c r="H2">
-        <v>14.949068772853</v>
+        <v>10.54724253125634</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.38421041228618</v>
+        <v>16.76632397580883</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.20588426489885</v>
+        <v>17.02692043435371</v>
       </c>
       <c r="N2">
-        <v>18.93266549881341</v>
+        <v>12.36013351116233</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.729303826301262</v>
+        <v>6.908961160387612</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.783410153023312</v>
+        <v>3.529608165803454</v>
       </c>
       <c r="E3">
-        <v>11.76327144579289</v>
+        <v>11.83433839485363</v>
       </c>
       <c r="F3">
-        <v>26.37109898924724</v>
+        <v>23.1996704894247</v>
       </c>
       <c r="G3">
-        <v>32.81526778124211</v>
+        <v>32.45635396192908</v>
       </c>
       <c r="H3">
-        <v>14.96476793590236</v>
+        <v>10.37356503322873</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.999814629666608</v>
+        <v>15.72177161268368</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.96766326380751</v>
+        <v>15.89739569972439</v>
       </c>
       <c r="N3">
-        <v>19.00062134317207</v>
+        <v>12.60242095872736</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.686933560431236</v>
+        <v>6.680552244905774</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.781485597484888</v>
+        <v>3.53159534769488</v>
       </c>
       <c r="E4">
-        <v>11.68078601558786</v>
+        <v>11.3999755251924</v>
       </c>
       <c r="F4">
-        <v>26.29575170107471</v>
+        <v>22.58526225149091</v>
       </c>
       <c r="G4">
-        <v>32.64225792513611</v>
+        <v>31.45500178837018</v>
       </c>
       <c r="H4">
-        <v>14.97772152532224</v>
+        <v>10.27514569478878</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.758431930294078</v>
+        <v>15.04736919179407</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.82327223646492</v>
+        <v>15.16820791697409</v>
       </c>
       <c r="N4">
-        <v>19.04424496607256</v>
+        <v>12.75406072758467</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.670073646268931</v>
+        <v>6.586014166010029</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.78070216771493</v>
+        <v>3.532406687363439</v>
       </c>
       <c r="E5">
-        <v>11.64802111565714</v>
+        <v>11.22125039904651</v>
       </c>
       <c r="F5">
-        <v>26.26710433890891</v>
+        <v>22.33611386023379</v>
       </c>
       <c r="G5">
-        <v>32.57461916748456</v>
+        <v>31.04727360510548</v>
       </c>
       <c r="H5">
-        <v>14.98383187911979</v>
+        <v>10.23706837799356</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.658881761742458</v>
+        <v>14.76422745450663</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.76498425307348</v>
+        <v>14.86202076335604</v>
       </c>
       <c r="N5">
-        <v>19.06250075891744</v>
+        <v>12.81661143332395</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.667299152310518</v>
+        <v>6.570232174267663</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.780572138979287</v>
+        <v>3.532541595964889</v>
       </c>
       <c r="E6">
-        <v>11.64263285735404</v>
+        <v>11.1914754845458</v>
       </c>
       <c r="F6">
-        <v>26.26247234141389</v>
+        <v>22.29482678026837</v>
       </c>
       <c r="G6">
-        <v>32.56356282420243</v>
+        <v>30.97960704190805</v>
       </c>
       <c r="H6">
-        <v>14.98489667250869</v>
+        <v>10.23086705052791</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.642285065298728</v>
+        <v>14.71670978093013</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.75534128879385</v>
+        <v>14.81063096118161</v>
       </c>
       <c r="N6">
-        <v>19.06556108052142</v>
+        <v>12.82704455592227</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.686704511980355</v>
+        <v>6.67928299717548</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.781475028109938</v>
+        <v>3.531606279251784</v>
       </c>
       <c r="E7">
-        <v>11.68034065184627</v>
+        <v>11.39757186696554</v>
       </c>
       <c r="F7">
-        <v>26.29535699441794</v>
+        <v>22.5818967449354</v>
       </c>
       <c r="G7">
-        <v>32.64133403551534</v>
+        <v>31.44950095232774</v>
       </c>
       <c r="H7">
-        <v>14.97780056688594</v>
+        <v>10.27462400683672</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.757093931213237</v>
+        <v>15.04358431667855</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.82248380131622</v>
+        <v>15.16411524645981</v>
       </c>
       <c r="N7">
-        <v>19.04448922951788</v>
+        <v>12.75490120302856</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.775852293889021</v>
+        <v>7.147339701783804</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.78546591821394</v>
+        <v>3.52748407565656</v>
       </c>
       <c r="E8">
-        <v>11.85408464947415</v>
+        <v>12.29145199609574</v>
       </c>
       <c r="F8">
-        <v>26.45846836662861</v>
+        <v>23.85861729008425</v>
       </c>
       <c r="G8">
-        <v>33.00946898705971</v>
+        <v>33.52455608234376</v>
       </c>
       <c r="H8">
-        <v>14.95379301786385</v>
+        <v>10.48563138025186</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.25287694013361</v>
+        <v>16.41300942090441</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.12340428319697</v>
+        <v>16.64481339405326</v>
       </c>
       <c r="N8">
-        <v>18.95570351347995</v>
+        <v>12.44309838016579</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.962019487494559</v>
+        <v>8.010525566044619</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.793297867190082</v>
+        <v>3.519212952832685</v>
       </c>
       <c r="E9">
-        <v>12.21859132273062</v>
+        <v>13.97881357626585</v>
       </c>
       <c r="F9">
-        <v>26.84129797599048</v>
+        <v>26.37966833009308</v>
       </c>
       <c r="G9">
-        <v>33.81583637981215</v>
+        <v>37.56980521160426</v>
       </c>
       <c r="H9">
-        <v>14.93307737252294</v>
+        <v>10.96613187450665</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.17774419243782</v>
+        <v>18.83762953081702</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.7248731993321</v>
+        <v>19.26945598558128</v>
       </c>
       <c r="N9">
-        <v>18.79659185599653</v>
+        <v>11.85285006396099</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.104509347719024</v>
+        <v>8.664614610449593</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.799040328053452</v>
+        <v>3.512840024389479</v>
       </c>
       <c r="E10">
-        <v>12.4984207407147</v>
+        <v>15.24063527143416</v>
       </c>
       <c r="F10">
-        <v>27.15911719370006</v>
+        <v>28.23026885796739</v>
       </c>
       <c r="G10">
-        <v>34.45456580621064</v>
+        <v>40.50928140841069</v>
       </c>
       <c r="H10">
-        <v>14.93400269625462</v>
+        <v>11.3617529859115</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.99780960302421</v>
+        <v>20.46311258605929</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.16902207850609</v>
+        <v>21.03403075993613</v>
       </c>
       <c r="N10">
-        <v>18.68873992590369</v>
+        <v>11.42972629082677</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.170308283362292</v>
+        <v>8.978368235737886</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.801647060689461</v>
+        <v>3.50983959184699</v>
       </c>
       <c r="E11">
-        <v>12.62778757568017</v>
+        <v>15.85420377352512</v>
       </c>
       <c r="F11">
-        <v>27.31118568160639</v>
+        <v>29.07021834152976</v>
       </c>
       <c r="G11">
-        <v>34.75399252426134</v>
+        <v>41.83749123195206</v>
       </c>
       <c r="H11">
-        <v>14.9379383972866</v>
+        <v>11.55138769650576</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.35115392045079</v>
+        <v>21.16971729764312</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.37060599040084</v>
+        <v>21.80285799129649</v>
       </c>
       <c r="N11">
-        <v>18.64161952653449</v>
+        <v>11.2389569198242</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.19534315571571</v>
+        <v>9.09478322701313</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.802633100122994</v>
+        <v>3.508685989852958</v>
       </c>
       <c r="E12">
-        <v>12.67702704140589</v>
+        <v>16.08352444509074</v>
       </c>
       <c r="F12">
-        <v>27.36980515094304</v>
+        <v>29.38794776789837</v>
       </c>
       <c r="G12">
-        <v>34.86854733631034</v>
+        <v>42.33911286946127</v>
       </c>
       <c r="H12">
-        <v>14.9399342592193</v>
+        <v>11.62462257131846</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.48210588156086</v>
+        <v>21.43266619635958</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.44679750736794</v>
+        <v>22.089271716932</v>
       </c>
       <c r="N12">
-        <v>18.62405401736496</v>
+        <v>11.16691381657296</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.189946548764105</v>
+        <v>9.069817218142049</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.802420790994366</v>
+        <v>3.508935255744943</v>
       </c>
       <c r="E13">
-        <v>12.6664120181405</v>
+        <v>16.0342681187798</v>
       </c>
       <c r="F13">
-        <v>27.35713509747467</v>
+        <v>29.31953474126662</v>
       </c>
       <c r="G13">
-        <v>34.84382565783869</v>
+        <v>42.23113926426198</v>
       </c>
       <c r="H13">
-        <v>14.93948193512005</v>
+        <v>11.6087861833689</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.45403010162874</v>
+        <v>21.37623957002</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.43039590395715</v>
+        <v>22.02779498669872</v>
       </c>
       <c r="N13">
-        <v>18.62782472198659</v>
+        <v>11.18242163624844</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.172365677009578</v>
+        <v>8.987993602651473</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.801728205835292</v>
+        <v>3.509745048646953</v>
       </c>
       <c r="E14">
-        <v>12.63183377182381</v>
+        <v>15.87312983306941</v>
       </c>
       <c r="F14">
-        <v>27.31598786201312</v>
+        <v>29.09636517121736</v>
       </c>
       <c r="G14">
-        <v>34.76339421755303</v>
+        <v>41.87878683417924</v>
       </c>
       <c r="H14">
-        <v>14.938092467975</v>
+        <v>11.5573840138795</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.36198465692761</v>
+        <v>21.19144239941278</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.37687763013436</v>
+        <v>21.82651520015213</v>
       </c>
       <c r="N14">
-        <v>18.64016883807997</v>
+        <v>11.23302623214959</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.161611613543281</v>
+        <v>8.937563177916395</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.801303829464911</v>
+        <v>3.51023872301633</v>
       </c>
       <c r="E15">
-        <v>12.61068490734729</v>
+        <v>15.77403876805258</v>
       </c>
       <c r="F15">
-        <v>27.29091739804871</v>
+        <v>28.95962181847633</v>
       </c>
       <c r="G15">
-        <v>34.71427660645703</v>
+        <v>41.66278592915592</v>
       </c>
       <c r="H15">
-        <v>14.93730720602348</v>
+        <v>11.52608529243921</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.30523232462742</v>
+        <v>21.07764928473607</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.3440751489168</v>
+        <v>21.70261492589666</v>
       </c>
       <c r="N15">
-        <v>18.64776612652492</v>
+        <v>11.26404716899204</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.100227010237464</v>
+        <v>8.643772825541946</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.798869836674643</v>
+        <v>3.51303382437183</v>
       </c>
       <c r="E16">
-        <v>12.49000398822413</v>
+        <v>15.20010553307528</v>
       </c>
       <c r="F16">
-        <v>27.14932629555107</v>
+        <v>28.17533093565843</v>
       </c>
       <c r="G16">
-        <v>34.43516691296381</v>
+        <v>40.42229270052299</v>
       </c>
       <c r="H16">
-        <v>14.93381622998738</v>
+        <v>11.34955724790233</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.97431949837559</v>
+        <v>20.4162813440224</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.1558321071811</v>
+        <v>20.9831165392324</v>
       </c>
       <c r="N16">
-        <v>18.69185832183057</v>
+        <v>11.44222384397181</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.062804344169468</v>
+        <v>8.459236700986295</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.797375043321812</v>
+        <v>3.514720502439675</v>
       </c>
       <c r="E17">
-        <v>12.41646729709049</v>
+        <v>14.842467329358</v>
       </c>
       <c r="F17">
-        <v>27.06435367890258</v>
+        <v>27.69364230939999</v>
       </c>
       <c r="G17">
-        <v>34.26613780704144</v>
+        <v>39.65892653786426</v>
       </c>
       <c r="H17">
-        <v>14.93257501596868</v>
+        <v>11.24376170271961</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.76625312020616</v>
+        <v>20.00220645530574</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.04017672594865</v>
+        <v>20.53314914628331</v>
       </c>
       <c r="N17">
-        <v>18.71940392161942</v>
+        <v>11.55193399624092</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.041373376281207</v>
+        <v>8.35150349850157</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.79651477233095</v>
+        <v>3.515681254842965</v>
       </c>
       <c r="E18">
-        <v>12.37436867496544</v>
+        <v>14.65190057624547</v>
       </c>
       <c r="F18">
-        <v>27.0161874758305</v>
+        <v>27.41640987407285</v>
       </c>
       <c r="G18">
-        <v>34.16975773555516</v>
+        <v>39.21901143762377</v>
       </c>
       <c r="H18">
-        <v>14.93219194701038</v>
+        <v>11.18381834213939</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.64472456991259</v>
+        <v>19.76094432963512</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.97361581678463</v>
+        <v>20.27114043740568</v>
       </c>
       <c r="N18">
-        <v>18.73543028719779</v>
+        <v>11.61520061486071</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.034133977172008</v>
+        <v>8.317552672209368</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.796223421075769</v>
+        <v>3.516005027059254</v>
       </c>
       <c r="E19">
-        <v>12.36015019295878</v>
+        <v>14.59133396278172</v>
       </c>
       <c r="F19">
-        <v>27.0000020564781</v>
+        <v>27.3225161367957</v>
       </c>
       <c r="G19">
-        <v>34.13727274905484</v>
+        <v>39.06992131774531</v>
       </c>
       <c r="H19">
-        <v>14.93211906104454</v>
+        <v>11.16367741698493</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.60325925314873</v>
+        <v>19.67872251676394</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.95107515230908</v>
+        <v>20.18187502506292</v>
       </c>
       <c r="N19">
-        <v>18.74088798606127</v>
+        <v>11.63665125566111</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.066778531698073</v>
+        <v>8.479045506574282</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.797534220933935</v>
+        <v>3.514541944547737</v>
       </c>
       <c r="E20">
-        <v>12.42427527747499</v>
+        <v>14.88075331388704</v>
       </c>
       <c r="F20">
-        <v>27.07332620677631</v>
+        <v>27.74493796007354</v>
       </c>
       <c r="G20">
-        <v>34.28404496785518</v>
+        <v>39.74027650163098</v>
       </c>
       <c r="H20">
-        <v>14.93267290239062</v>
+        <v>11.25492966593275</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.78859419840293</v>
+        <v>20.04660534135387</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.0524930458629</v>
+        <v>20.58137903966274</v>
       </c>
       <c r="N20">
-        <v>18.7164527290047</v>
+        <v>11.54023850999055</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.177526576167061</v>
+        <v>9.012091952291524</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.801931666206686</v>
+        <v>3.509507686783829</v>
       </c>
       <c r="E21">
-        <v>12.64198379913611</v>
+        <v>15.92054087750099</v>
       </c>
       <c r="F21">
-        <v>27.32804608025609</v>
+        <v>29.16192502191166</v>
       </c>
       <c r="G21">
-        <v>34.78698802891545</v>
+        <v>41.98231769365181</v>
       </c>
       <c r="H21">
-        <v>14.93848687027864</v>
+        <v>11.57244312313983</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.38909815112842</v>
+        <v>21.24584655628193</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.39260175337602</v>
+        <v>21.8857629123322</v>
       </c>
       <c r="N21">
-        <v>18.63653553834282</v>
+        <v>11.21815749270205</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.250585604056578</v>
+        <v>9.346515511293365</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.804799267551667</v>
+        <v>3.506114899670124</v>
       </c>
       <c r="E22">
-        <v>12.78571075198878</v>
+        <v>16.58255531231034</v>
       </c>
       <c r="F22">
-        <v>27.50052834010027</v>
+        <v>30.08602584806633</v>
       </c>
       <c r="G22">
-        <v>35.12245021459612</v>
+        <v>43.43983499150569</v>
       </c>
       <c r="H22">
-        <v>14.94523283890398</v>
+        <v>11.7882783551543</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.76493453409492</v>
+        <v>22.00270475690796</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.61400979450389</v>
+        <v>22.71079578929016</v>
       </c>
       <c r="N22">
-        <v>18.58592462706065</v>
+        <v>11.00878278836429</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.211537973071444</v>
+        <v>9.169292572763045</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.803269449166228</v>
+        <v>3.507935966380458</v>
       </c>
       <c r="E23">
-        <v>12.70888442447538</v>
+        <v>16.230778034303</v>
       </c>
       <c r="F23">
-        <v>27.40793626775184</v>
+        <v>29.59300577889847</v>
       </c>
       <c r="G23">
-        <v>34.94282484109074</v>
+        <v>42.66263702220493</v>
       </c>
       <c r="H23">
-        <v>14.94136287887052</v>
+        <v>11.6723088669203</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.56586963398338</v>
+        <v>21.60118298358486</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.49594480137544</v>
+        <v>22.2729193747751</v>
       </c>
       <c r="N23">
-        <v>18.61278885377922</v>
+        <v>11.12044422244345</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.064981538707842</v>
+        <v>8.470095059216405</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.797462259468525</v>
+        <v>3.514622698205315</v>
       </c>
       <c r="E24">
-        <v>12.42074472968513</v>
+        <v>14.86345101505159</v>
       </c>
       <c r="F24">
-        <v>27.06926758772712</v>
+        <v>27.72174813503513</v>
       </c>
       <c r="G24">
-        <v>34.27594664960938</v>
+        <v>39.70350143512638</v>
       </c>
       <c r="H24">
-        <v>14.93262761831928</v>
+        <v>11.24987789158957</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.77849973996735</v>
+        <v>20.02654259468768</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.04692504687428</v>
+        <v>20.55958464592624</v>
       </c>
       <c r="N24">
-        <v>18.71778637108908</v>
+        <v>11.54552543515652</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.910564188879787</v>
+        <v>7.783429885681787</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.791180082755543</v>
+        <v>3.521489663350112</v>
       </c>
       <c r="E25">
-        <v>12.11768688274622</v>
+        <v>13.52997597235894</v>
       </c>
       <c r="F25">
-        <v>26.73116814475443</v>
+        <v>25.69723275434651</v>
       </c>
       <c r="G25">
-        <v>33.5891680836242</v>
+        <v>36.48021047451871</v>
       </c>
       <c r="H25">
-        <v>14.93585025092749</v>
+        <v>10.82879659805889</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.93246211313531</v>
+        <v>18.2093636973202</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.56143170211663</v>
+        <v>18.58868339061941</v>
       </c>
       <c r="N25">
-        <v>18.83804012943622</v>
+        <v>12.01049660216847</v>
       </c>
       <c r="O25">
         <v>0</v>
